--- a/huaweicloud vs AWS.xlsx
+++ b/huaweicloud vs AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>批量计算管理服务</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tools managing batch computing workloads</t>
+    <t>Tools managing batch computing workloads</t>
   </si>
   <si>
     <t>用于管理批量计算负载的工具</t>
@@ -97,7 +97,18 @@
     <t>AWSLambda</t>
   </si>
   <si>
-    <t>Lambda计算服务</t>
+    <r>
+      <t>Lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算服务</t>
+    </r>
   </si>
   <si>
     <t>FunctionGraph</t>
@@ -138,21 +149,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>web</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>应用的轻量级云服务</t>
     </r>
@@ -164,7 +173,7 @@
     <t>AmazonECR</t>
   </si>
   <si>
-    <t>弹性容器注册表</t>
+    <t>`</t>
   </si>
   <si>
     <t>Cloud Container Engine(CCE)</t>
@@ -176,7 +185,45 @@
     <t>Store, manage and deploy Kubernetes clusters and Docker container images</t>
   </si>
   <si>
-    <t>存储、管理和部署 Kubernetes集群以及Docker 容器映像</t>
+    <r>
+      <t>存储、管理和部署</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Kubernetes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Docker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>容器映像</t>
+    </r>
   </si>
   <si>
     <t>AmazonECS</t>
@@ -193,21 +240,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>Kubernetes</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>服务</t>
     </r>
@@ -254,21 +299,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> AWS </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>服务的数据</t>
     </r>
@@ -324,21 +367,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Amazon S3 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>存储服务</t>
     </r>
@@ -347,7 +388,36 @@
     <t>AWSSnow Family</t>
   </si>
   <si>
-    <t>‘雪’系列存储服务</t>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系列存储服务</t>
+    </r>
   </si>
   <si>
     <t>Data Express Service(DES)</t>
@@ -364,41 +434,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>TB</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>到</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>PB</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>级数据上云</t>
     </r>
@@ -424,21 +490,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>NFS</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>协议）访问网关，连接到云服务器，实现用户本地和云存储数据的同步管理。</t>
     </r>
@@ -461,31 +525,28 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>(MySQL</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>版</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -499,41 +560,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">MySQL </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>和</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PostgreSQL </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的关系数据库引擎</t>
     </r>
@@ -542,7 +599,18 @@
     <t>AmazonDocumentDB</t>
   </si>
   <si>
-    <t>MongoDB文档数据库</t>
+    <r>
+      <t>MongoDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档数据库</t>
+    </r>
   </si>
   <si>
     <t>Document Database Service(DDS)</t>
@@ -559,21 +627,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">MongoDB </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的关系数据库引擎</t>
     </r>
@@ -582,7 +648,18 @@
     <t>AmazonDynamoDB</t>
   </si>
   <si>
-    <t>Dynamo数据库</t>
+    <r>
+      <t>Dynamo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库</t>
+    </r>
   </si>
   <si>
     <t>GaussDB NoSQL</t>
@@ -593,31 +670,28 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>(NoSQL</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>版</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -631,21 +705,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">NoSQL </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>的数据库表</t>
     </r>
@@ -665,41 +737,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Redis </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>或</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Memcached </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>兼容的数据缓存服务</t>
     </r>
@@ -713,11 +781,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>数据库</t>
     </r>
@@ -731,11 +798,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>兼容数据库</t>
     </r>
@@ -794,21 +860,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PB </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>级数据仓库服务</t>
     </r>
@@ -825,11 +889,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>网关</t>
     </r>
@@ -846,21 +909,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>API</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>托管服务</t>
     </r>
@@ -886,11 +947,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> (CDN)</t>
     </r>
@@ -904,11 +964,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>专线</t>
     </r>
@@ -944,7 +1003,18 @@
     <t>AmazonRoute 53</t>
   </si>
   <si>
-    <t>Route53 DNS服务</t>
+    <r>
+      <t>Route53 DNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
+    </r>
   </si>
   <si>
     <t>Domain Name Service(DNS)</t>
@@ -961,41 +1031,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>DNS</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>服务和</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>DNS</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>管理服务</t>
     </r>
@@ -1033,21 +1099,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>VPC</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>之间建立安全加密通信隧道</t>
     </r>
@@ -1136,11 +1200,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>攻击保护</t>
     </r>
@@ -1154,11 +1217,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>防护</t>
     </r>
@@ -1172,21 +1234,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>DDoS</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>攻击的防护服务</t>
     </r>
@@ -1206,11 +1266,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>应用防火墙</t>
     </r>
@@ -1224,41 +1283,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>HTTP(S)</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>请求进行检测，保护</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>Web</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>服务安全稳定。</t>
     </r>
@@ -1323,41 +1378,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>本地和同构</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>异构数据源之间批量数据迁移服务</t>
     </r>
@@ -1402,11 +1453,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1422,54 +1473,28 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1479,9 +1504,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,11 +1532,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1518,10 +1617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1533,32 +1633,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1566,29 +1642,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1603,7 +1657,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,31 +1777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,25 +1795,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,97 +1831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,6 +1848,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1812,21 +1875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1838,9 +1886,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,6 +1919,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1883,172 +1948,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2312,8 +2367,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7142857142857" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -2328,7 +2383,7 @@
     <col min="8" max="16384" width="20.7142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2434,7 @@
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4"/>
@@ -2400,7 +2455,7 @@
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2487,7 +2542,7 @@
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2499,7 +2554,7 @@
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2520,7 +2575,7 @@
       <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2541,7 +2596,7 @@
       <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2958,7 +3013,7 @@
       <c r="D32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>162</v>
       </c>
       <c r="F32" s="4" t="s">

--- a/huaweicloud vs AWS.xlsx
+++ b/huaweicloud vs AWS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="21431" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lambda</t>
     </r>
     <r>
@@ -145,6 +151,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用于构建网站或者</t>
     </r>
     <r>
@@ -186,6 +198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>存储、管理和部署</t>
     </r>
     <r>
@@ -236,6 +254,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>弹性</t>
     </r>
     <r>
@@ -295,6 +319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>集中管理和自动备份云服务器上以及本地</t>
     </r>
     <r>
@@ -363,6 +393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一种用于数据存档和长期备份的安全、持久且成本极低的</t>
     </r>
     <r>
@@ -389,6 +425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>‘</t>
     </r>
     <r>
@@ -430,6 +472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一种海量数据传输解决方案，支持</t>
     </r>
     <r>
@@ -486,6 +534,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一种混合云存储服务。用户本地数据中心的应用程序通过标准存储协议（</t>
     </r>
     <r>
@@ -521,6 +575,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高斯数据库</t>
     </r>
     <r>
@@ -556,6 +616,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>兼容</t>
     </r>
     <r>
@@ -600,6 +666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>MongoDB</t>
     </r>
     <r>
@@ -623,6 +695,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>兼容</t>
     </r>
     <r>
@@ -649,6 +727,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Dynamo</t>
     </r>
     <r>
@@ -666,6 +750,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高斯数据库</t>
     </r>
     <r>
@@ -701,6 +791,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>兼容</t>
     </r>
     <r>
@@ -733,6 +829,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>与</t>
     </r>
     <r>
@@ -777,6 +879,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>keyspaces</t>
     </r>
     <r>
@@ -794,6 +902,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Apache Cassandra </t>
     </r>
     <r>
@@ -856,6 +970,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>成本低廉、快速、完全托管的</t>
     </r>
     <r>
@@ -885,6 +1005,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>API</t>
     </r>
     <r>
@@ -905,6 +1031,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高性能、高可用、高安全的</t>
     </r>
     <r>
@@ -943,6 +1075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>快速、高度安全且可编程的内容分发网络</t>
     </r>
     <r>
@@ -960,6 +1098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>AWS</t>
     </r>
     <r>
@@ -1004,6 +1148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Route53 DNS</t>
     </r>
     <r>
@@ -1027,6 +1177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高可用，高扩展的权威</t>
     </r>
     <r>
@@ -1095,6 +1251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用于在本地和</t>
     </r>
     <r>
@@ -1196,6 +1358,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>DDoS</t>
     </r>
     <r>
@@ -1213,6 +1381,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>DDoS</t>
     </r>
     <r>
@@ -1230,6 +1404,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>针对</t>
     </r>
     <r>
@@ -1262,6 +1442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Web</t>
     </r>
     <r>
@@ -1279,6 +1465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通过对</t>
     </r>
     <r>
@@ -1374,6 +1566,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提供云端</t>
     </r>
     <r>
@@ -1452,10 +1650,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1497,22 +1695,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,6 +1719,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,23 +1753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,7 +1763,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,14 +1782,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1601,17 +1801,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1619,14 +1818,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,15 +1833,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,13 +1855,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,19 +1945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,97 +1963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,13 +2017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +2035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,50 +2046,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1910,11 +2064,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,151 +2108,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2368,22 +2566,22 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7142857142857" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="20.712962962963" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="33.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1428571428571" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5714285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.2857142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.5714285714286" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.4259259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1388888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5740740740741" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.287037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5740740740741" style="2" customWidth="1"/>
     <col min="6" max="6" width="234" style="2" customWidth="1"/>
-    <col min="7" max="7" width="142.714285714286" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="20.7142857142857" style="2"/>
+    <col min="7" max="7" width="142.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="20.712962962963" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2429,7 +2627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -2442,7 +2640,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -2480,7 +2678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -2501,7 +2699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>32</v>
@@ -2518,7 +2716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>36</v>
@@ -2535,7 +2733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2558,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>47</v>
@@ -2579,7 +2777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>49</v>
@@ -2600,7 +2798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -2623,7 +2821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>58</v>
@@ -2644,7 +2842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>64</v>
@@ -2665,7 +2863,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>70</v>
@@ -2686,7 +2884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>76</v>
@@ -2703,7 +2901,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>80</v>
@@ -2724,7 +2922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>86</v>
